--- a/papers.xlsx
+++ b/papers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -37,22 +37,39 @@
     <t>Techniques</t>
   </si>
   <si>
-    <t>2014</t>
+    <t>2023</t>
   </si>
   <si>
     <t>Reductions to the set of random strings: The resource-bounded case</t>
   </si>
   <si>
+    <t>A Duality Between One-Way Functions and Average-Case
+Symmetry of Information</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eric Allender , Harry Buhrman , Luke Friedman , Bruno Loff </t>
   </si>
   <si>
+    <t>Shuichi Hirahara, Rahul Ilango, Zhenjian Lu, Mikito Nanashima, and Igor Carboni Oliveira</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Logical Methods in Computer Science, August 19, 2014, Volume 10, Issue 3</t>
   </si>
   <si>
+    <t>STOC 2023</t>
+  </si>
+  <si>
     <t>https://doi.org/10.2168/LMCS-10(3:5)2014</t>
   </si>
   <si>
+    <t>https://eccc.weizmann.ac.il/report/2023/035/</t>
+  </si>
+  <si>
     <t>TBW</t>
+  </si>
+  <si>
+    <t>This paper establishes a duality between time-bounded Symmetry of Information (SoI) in Kolmogorov complexity and the existence of one-way functions (OWFs). It proves that OWFs exist if and only if probabilistic time-bounded SoI fails on average over a samplable distribution of string pairs. This result extends prior work by Longpré and collaborators, who showed that time-bounded SoI implies the nonexistence of OWFs, and it resolves a longstanding question about whether a converse holds.
+The authors leverage recent developments in probabilistic Kolmogorov complexity and meta-complexity to reveal further equivalences between OWF inversion and core properties of time-bounded Kolmogorov complexity, including (average-case) language compression and conditional coding. Additionally, they explore analogous correspondences for the worst-case and average-case hardness of NP, demonstrating similar dualities between computational hardness assumptions and failures of Kolmogorov complexity properties.</t>
   </si>
 </sst>
 </file>
@@ -423,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,31 +470,52 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2">
+        <v>2014</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/papers.xlsx
+++ b/papers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -511,6 +511,9 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/papers.xlsx
+++ b/papers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -37,39 +37,48 @@
     <t>Techniques</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>Reductions to the set of random strings: The resource-bounded case</t>
+    <t>2024</t>
   </si>
   <si>
     <t>A Duality Between One-Way Functions and Average-Case
 Symmetry of Information</t>
   </si>
   <si>
-    <t xml:space="preserve">Eric Allender , Harry Buhrman , Luke Friedman , Bruno Loff </t>
+    <t>On one-way functions and the average time complexity of
+ almost-optimal compression</t>
   </si>
   <si>
     <t>Shuichi Hirahara, Rahul Ilango, Zhenjian Lu, Mikito Nanashima, and Igor Carboni Oliveira</t>
   </si>
   <si>
-    <t xml:space="preserve"> Logical Methods in Computer Science, August 19, 2014, Volume 10, Issue 3</t>
+    <t>Marius Zimand</t>
   </si>
   <si>
     <t>STOC 2023</t>
   </si>
   <si>
-    <t>https://doi.org/10.2168/LMCS-10(3:5)2014</t>
+    <t>ArXiv</t>
   </si>
   <si>
     <t>https://eccc.weizmann.ac.il/report/2023/035/</t>
   </si>
   <si>
-    <t>TBW</t>
+    <t>https://arxiv.org/abs/2412.03392</t>
   </si>
   <si>
     <t>This paper establishes a duality between time-bounded Symmetry of Information (SoI) in Kolmogorov complexity and the existence of one-way functions (OWFs). It proves that OWFs exist if and only if probabilistic time-bounded SoI fails on average over a samplable distribution of string pairs. This result extends prior work by Longpré and collaborators, who showed that time-bounded SoI implies the nonexistence of OWFs, and it resolves a longstanding question about whether a converse holds.
 The authors leverage recent developments in probabilistic Kolmogorov complexity and meta-complexity to reveal further equivalences between OWF inversion and core properties of time-bounded Kolmogorov complexity, including (average-case) language compression and conditional coding. Additionally, they explore analogous correspondences for the worst-case and average-case hardness of NP, demonstrating similar dualities between computational hardness assumptions and failures of Kolmogorov complexity properties.</t>
+  </si>
+  <si>
+    <t>The paper shows that the existence of one-way functions is equivalent to the existence of a polynomial time samplable distribution with respect to which the probability of compressing a string upto its unbounded time Kolmogorov complexity (with an O(log^2) slack) is at 1/100.</t>
+  </si>
+  <si>
+    <t>TBW</t>
+  </si>
+  <si>
+    <t>The major techniques used are the following:
+1. A result on universal extrapolation by Ilango, Ren and Santhanam. 
+2. A probabilistic polynomial time algorithm by Zimand and Bauwens that optimally compresses a string given a good approximation for its unbounded Kolmogorov complexity. The sketch of the argument which shows one-way functions implies average case hardness of compression is as follows: Existence of one way functions implies the existence of PRGs with a polynomial stretch. If compression is not hard on average then the paper describes an algorithm which uses a compression algorithm to distinguish between outputs of the PRG and uniformly random outputs. The idea in the converse direction is as follows: If one-way functions does not exist then for any given P-samplable distribution D_n, the extrapolation algorithm from Ilango, Ren and Santhanam can be used to approximate D_n, which in turn can be modified to obtain a good approximation for the Kolmogorov complexity.</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -489,7 +498,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -512,7 +521,7 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/papers.xlsx
+++ b/papers.xlsx
@@ -70,7 +70,7 @@
 The authors leverage recent developments in probabilistic Kolmogorov complexity and meta-complexity to reveal further equivalences between OWF inversion and core properties of time-bounded Kolmogorov complexity, including (average-case) language compression and conditional coding. Additionally, they explore analogous correspondences for the worst-case and average-case hardness of NP, demonstrating similar dualities between computational hardness assumptions and failures of Kolmogorov complexity properties.</t>
   </si>
   <si>
-    <t>The paper shows that the existence of one-way functions is equivalent to the existence of a polynomial time samplable distribution with respect to which the probability of compressing a string upto its unbounded time Kolmogorov complexity (with an O(log^2) slack) is at 1/100.</t>
+    <t>The paper shows that the existence of one-way functions is equivalent to the existence of a polynomial time samplable distribution with respect to which the probability of compressing a string upto its unbounded time Kolmogorov complexity (with an O(log^2) slack) is at most 1/100.</t>
   </si>
   <si>
     <t>TBW</t>
